--- a/ApplicationReceiptFileXMLDefinition.xlsx
+++ b/ApplicationReceiptFileXMLDefinition.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\francisco.perez\Box Sync\New Center Integration Package\Application Integration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\francisco.perez\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A59998F8-C379-408D-B6AE-9B61E37299B9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Definition" sheetId="1" r:id="rId1"/>
     <sheet name="Anotation" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="97">
   <si>
     <t>Data Element Parent Node</t>
   </si>
@@ -328,11 +329,20 @@
   <si>
     <t>Joseph Campbell</t>
   </si>
+  <si>
+    <t xml:space="preserve">New Row Added </t>
+  </si>
+  <si>
+    <t>New Row</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -417,17 +427,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:H18" totalsRowShown="0">
-  <autoFilter ref="A1:H18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A1:H19" totalsRowShown="0">
+  <autoFilter ref="A1:H19" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
-    <tableColumn id="8" name="Data Element Parent Node"/>
-    <tableColumn id="1" name="Required Field"/>
-    <tableColumn id="4" name="XML Data Element Name"/>
-    <tableColumn id="7" name="XML Data Type" dataDxfId="4"/>
-    <tableColumn id="5" name="Salesforce Field API Name" dataDxfId="3"/>
-    <tableColumn id="6" name="Available Values:" dataDxfId="2"/>
-    <tableColumn id="2" name="Description" dataDxfId="1"/>
-    <tableColumn id="3" name="Sample" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Data Element Parent Node"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Required Field"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="XML Data Element Name"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="XML Data Type" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Salesforce Field API Name" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Available Values:" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Description" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sample" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -729,26 +739,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="227.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="227.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="93.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="93.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -774,7 +784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
@@ -800,7 +810,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -826,7 +836,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -852,7 +862,7 @@
         <v>963852</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -878,7 +888,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -904,7 +914,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -930,7 +940,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -956,7 +966,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -982,163 +992,154 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="3" t="b">
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="144" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3" t="s">
+    <row r="14" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3" t="s">
+    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -1146,79 +1147,105 @@
         <v>0</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3" t="s">
+    <row r="18" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H6" r:id="rId1" display="test@slu.edu"/>
+    <hyperlink ref="H6" r:id="rId1" display="test@slu.edu" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1228,20 +1255,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -1249,7 +1276,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -1257,7 +1284,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>67</v>
       </c>

--- a/ApplicationReceiptFileXMLDefinition.xlsx
+++ b/ApplicationReceiptFileXMLDefinition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\francisco.perez\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A59998F8-C379-408D-B6AE-9B61E37299B9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D7DF98AD-2E7F-4468-92E6-7528CE52BD56}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="95">
   <si>
     <t>Data Element Parent Node</t>
   </si>
@@ -330,13 +330,7 @@
     <t>Joseph Campbell</t>
   </si>
   <si>
-    <t xml:space="preserve">New Row Added </t>
-  </si>
-  <si>
-    <t>New Row</t>
-  </si>
-  <si>
-    <t>NR</t>
+    <t>String (Length:21)</t>
   </si>
 </sst>
 </file>
@@ -427,8 +421,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A1:H19" totalsRowShown="0">
-  <autoFilter ref="A1:H19" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A1:H18" totalsRowShown="0">
+  <autoFilter ref="A1:H18" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Data Element Parent Node"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Required Field"/>
@@ -740,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="227.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,47 +986,56 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="D10" s="4" t="s">
         <v>94</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1043,25 +1046,25 @@
         <v>0</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
@@ -1069,48 +1072,48 @@
         <v>0</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="E14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="G14" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1121,25 +1124,25 @@
         <v>0</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -1147,25 +1150,25 @@
         <v>0</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
@@ -1173,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
@@ -1199,47 +1202,21 @@
         <v>0</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" s="2" t="s">
         <v>65</v>
       </c>
     </row>
